--- a/Cartera Operativa.xlsx
+++ b/Cartera Operativa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acoronado\Downloads\Reporte Mensuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B13BE44-ED73-4D35-9A95-2A155299059D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06200DE5-A29F-47CD-BAD8-9F395ED33C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9C08846-CFD1-45DB-A6EF-0D1379DD4C08}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4049" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4185" uniqueCount="698">
   <si>
     <t>IDEtapa</t>
   </si>
@@ -2126,6 +2126,18 @@
   </si>
   <si>
     <t>Estado Gop</t>
+  </si>
+  <si>
+    <t>Finalizando</t>
+  </si>
+  <si>
+    <t>Sin Primer Desembolso</t>
+  </si>
+  <si>
+    <t>Etapa Final</t>
+  </si>
+  <si>
+    <t>En Ejecucion</t>
   </si>
 </sst>
 </file>
@@ -2309,7 +2321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2339,6 +2351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2917,10 +2930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A44023-9B7C-45FD-9C0F-671221418466}">
-  <dimension ref="A1:O136"/>
+  <dimension ref="A1:P136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C94" workbookViewId="0">
-      <selection activeCell="I108" sqref="I108"/>
+    <sheetView tabSelected="1" topLeftCell="C118" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2931,7 +2944,7 @@
     <col min="6" max="14" width="18.28515625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2977,8 +2990,11 @@
       <c r="O1" s="25" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="27" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -3024,8 +3040,11 @@
       <c r="O2" s="25" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -3071,8 +3090,11 @@
       <c r="O3" s="25" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -3112,8 +3134,11 @@
       <c r="O4" s="25" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -3159,8 +3184,11 @@
       <c r="O5" s="25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -3206,8 +3234,11 @@
       <c r="O6" s="25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -3253,8 +3284,11 @@
       <c r="O7" s="25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -3300,8 +3334,11 @@
       <c r="O8" s="25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -3347,8 +3384,11 @@
       <c r="O9" s="25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -3391,8 +3431,11 @@
       <c r="O10" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -3435,8 +3478,11 @@
       <c r="O11" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -3479,8 +3525,11 @@
       <c r="O12" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -3523,8 +3572,11 @@
       <c r="O13" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -3567,8 +3619,11 @@
       <c r="O14" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -3611,8 +3666,11 @@
       <c r="O15" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -3655,8 +3713,11 @@
       <c r="O16" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -3699,8 +3760,11 @@
       <c r="O17" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
@@ -3743,8 +3807,11 @@
       <c r="O18" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -3787,8 +3854,11 @@
       <c r="O19" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -3831,8 +3901,11 @@
       <c r="O20" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -3875,8 +3948,11 @@
       <c r="O21" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -3919,8 +3995,11 @@
       <c r="O22" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -3963,8 +4042,11 @@
       <c r="O23" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -4007,8 +4089,11 @@
       <c r="O24" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
@@ -4051,8 +4136,11 @@
       <c r="O25" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
@@ -4095,8 +4183,11 @@
       <c r="O26" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
@@ -4142,8 +4233,11 @@
       <c r="O27" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
@@ -4189,8 +4283,11 @@
       <c r="O28" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
@@ -4236,8 +4333,11 @@
       <c r="O29" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
@@ -4283,8 +4383,11 @@
       <c r="O30" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
@@ -4330,8 +4433,11 @@
       <c r="O31" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
@@ -4377,8 +4483,11 @@
       <c r="O32" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
@@ -4424,8 +4533,11 @@
       <c r="O33" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
@@ -4471,8 +4583,11 @@
       <c r="O34" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
@@ -4518,8 +4633,11 @@
       <c r="O35" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
@@ -4565,8 +4683,11 @@
       <c r="O36" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
@@ -4612,8 +4733,11 @@
       <c r="O37" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
@@ -4659,8 +4783,11 @@
       <c r="O38" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
@@ -4706,8 +4833,11 @@
       <c r="O39" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
@@ -4753,8 +4883,11 @@
       <c r="O40" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>40</v>
       </c>
@@ -4800,8 +4933,11 @@
       <c r="O41" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>41</v>
       </c>
@@ -4847,8 +4983,11 @@
       <c r="O42" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P42" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>42</v>
       </c>
@@ -4894,8 +5033,11 @@
       <c r="O43" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>43</v>
       </c>
@@ -4941,8 +5083,11 @@
       <c r="O44" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P44" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>44</v>
       </c>
@@ -4988,8 +5133,11 @@
       <c r="O45" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>45</v>
       </c>
@@ -5035,8 +5183,11 @@
       <c r="O46" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P46" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>46</v>
       </c>
@@ -5082,8 +5233,11 @@
       <c r="O47" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P47" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>47</v>
       </c>
@@ -5129,8 +5283,11 @@
       <c r="O48" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>48</v>
       </c>
@@ -5176,8 +5333,11 @@
       <c r="O49" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>49</v>
       </c>
@@ -5223,8 +5383,11 @@
       <c r="O50" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>50</v>
       </c>
@@ -5270,8 +5433,11 @@
       <c r="O51" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P51" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>51</v>
       </c>
@@ -5317,8 +5483,11 @@
       <c r="O52" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P52" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>52</v>
       </c>
@@ -5364,8 +5533,11 @@
       <c r="O53" s="25" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P53" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>53</v>
       </c>
@@ -5402,8 +5574,11 @@
       <c r="O54" s="26" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P54" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>54</v>
       </c>
@@ -5449,8 +5624,11 @@
       <c r="O55" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P55" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>55</v>
       </c>
@@ -5496,8 +5674,11 @@
       <c r="O56" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P56" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>56</v>
       </c>
@@ -5543,8 +5724,11 @@
       <c r="O57" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P57" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>57</v>
       </c>
@@ -5590,8 +5774,11 @@
       <c r="O58" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P58" s="27" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>58</v>
       </c>
@@ -5637,8 +5824,11 @@
       <c r="O59" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P59" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>59</v>
       </c>
@@ -5684,8 +5874,11 @@
       <c r="O60" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P60" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>60</v>
       </c>
@@ -5731,8 +5924,11 @@
       <c r="O61" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P61" s="27" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>61</v>
       </c>
@@ -5778,8 +5974,11 @@
       <c r="O62" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P62" s="27" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>62</v>
       </c>
@@ -5825,8 +6024,11 @@
       <c r="O63" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P63" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>63</v>
       </c>
@@ -5872,8 +6074,11 @@
       <c r="O64" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P64" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>64</v>
       </c>
@@ -5919,8 +6124,11 @@
       <c r="O65" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P65" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>65</v>
       </c>
@@ -5966,8 +6174,11 @@
       <c r="O66" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P66" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>66</v>
       </c>
@@ -6013,8 +6224,11 @@
       <c r="O67" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P67" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>67</v>
       </c>
@@ -6060,8 +6274,11 @@
       <c r="O68" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P68" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>68</v>
       </c>
@@ -6107,8 +6324,11 @@
       <c r="O69" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P69" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>69</v>
       </c>
@@ -6154,8 +6374,11 @@
       <c r="O70" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P70" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>70</v>
       </c>
@@ -6201,8 +6424,11 @@
       <c r="O71" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P71" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>71</v>
       </c>
@@ -6248,8 +6474,11 @@
       <c r="O72" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P72" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>72</v>
       </c>
@@ -6295,8 +6524,11 @@
       <c r="O73" s="25" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P73" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>73</v>
       </c>
@@ -6336,8 +6568,11 @@
       <c r="O74" s="25" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P74" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>74</v>
       </c>
@@ -6374,8 +6609,11 @@
       <c r="O75" s="25" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P75" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>75</v>
       </c>
@@ -6412,8 +6650,11 @@
       <c r="O76" s="26" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P76" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>76</v>
       </c>
@@ -6459,8 +6700,11 @@
       <c r="O77" s="25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P77" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>77</v>
       </c>
@@ -6506,8 +6750,11 @@
       <c r="O78" s="25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P78" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>78</v>
       </c>
@@ -6553,8 +6800,11 @@
       <c r="O79" s="25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P79" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>79</v>
       </c>
@@ -6600,8 +6850,11 @@
       <c r="O80" s="25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P80" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>80</v>
       </c>
@@ -6647,8 +6900,11 @@
       <c r="O81" s="25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P81" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>81</v>
       </c>
@@ -6694,8 +6950,11 @@
       <c r="O82" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P82" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>82</v>
       </c>
@@ -6741,8 +7000,11 @@
       <c r="O83" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P83" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>83</v>
       </c>
@@ -6788,8 +7050,11 @@
       <c r="O84" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P84" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>84</v>
       </c>
@@ -6835,8 +7100,11 @@
       <c r="O85" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P85" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>85</v>
       </c>
@@ -6882,8 +7150,11 @@
       <c r="O86" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P86" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>86</v>
       </c>
@@ -6929,8 +7200,11 @@
       <c r="O87" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P87" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>87</v>
       </c>
@@ -6976,8 +7250,11 @@
       <c r="O88" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P88" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>88</v>
       </c>
@@ -7023,8 +7300,11 @@
       <c r="O89" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P89" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>89</v>
       </c>
@@ -7070,8 +7350,11 @@
       <c r="O90" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P90" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>90</v>
       </c>
@@ -7117,8 +7400,11 @@
       <c r="O91" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P91" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>91</v>
       </c>
@@ -7164,8 +7450,11 @@
       <c r="O92" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P92" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>92</v>
       </c>
@@ -7211,8 +7500,11 @@
       <c r="O93" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P93" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>93</v>
       </c>
@@ -7258,8 +7550,11 @@
       <c r="O94" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P94" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>94</v>
       </c>
@@ -7305,8 +7600,11 @@
       <c r="O95" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P95" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>95</v>
       </c>
@@ -7352,8 +7650,11 @@
       <c r="O96" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P96" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>96</v>
       </c>
@@ -7399,8 +7700,11 @@
       <c r="O97" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P97" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>97</v>
       </c>
@@ -7446,8 +7750,11 @@
       <c r="O98" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P98" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>98</v>
       </c>
@@ -7493,8 +7800,11 @@
       <c r="O99" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P99" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>99</v>
       </c>
@@ -7540,8 +7850,11 @@
       <c r="O100" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P100" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>100</v>
       </c>
@@ -7587,8 +7900,11 @@
       <c r="O101" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P101" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>101</v>
       </c>
@@ -7634,8 +7950,11 @@
       <c r="O102" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P102" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>102</v>
       </c>
@@ -7681,8 +8000,11 @@
       <c r="O103" s="25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P103" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>103</v>
       </c>
@@ -7728,8 +8050,11 @@
       <c r="O104" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P104" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>104</v>
       </c>
@@ -7775,8 +8100,11 @@
       <c r="O105" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P105" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>105</v>
       </c>
@@ -7822,8 +8150,11 @@
       <c r="O106" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P106" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>106</v>
       </c>
@@ -7869,8 +8200,11 @@
       <c r="O107" s="25" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P107" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>107</v>
       </c>
@@ -7901,8 +8235,11 @@
       <c r="O108" s="26" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P108" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>108</v>
       </c>
@@ -7948,8 +8285,11 @@
       <c r="O109" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P109" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>109</v>
       </c>
@@ -7995,8 +8335,11 @@
       <c r="O110" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P110" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>110</v>
       </c>
@@ -8042,8 +8385,11 @@
       <c r="O111" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P111" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>111</v>
       </c>
@@ -8089,8 +8435,11 @@
       <c r="O112" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P112" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>112</v>
       </c>
@@ -8136,8 +8485,11 @@
       <c r="O113" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P113" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>113</v>
       </c>
@@ -8183,8 +8535,11 @@
       <c r="O114" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P114" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>114</v>
       </c>
@@ -8230,8 +8585,11 @@
       <c r="O115" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P115" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>115</v>
       </c>
@@ -8277,8 +8635,11 @@
       <c r="O116" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P116" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>116</v>
       </c>
@@ -8324,8 +8685,11 @@
       <c r="O117" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P117" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>117</v>
       </c>
@@ -8371,8 +8735,11 @@
       <c r="O118" s="25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P118" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>118</v>
       </c>
@@ -8415,8 +8782,11 @@
       <c r="O119" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P119" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>119</v>
       </c>
@@ -8459,8 +8829,11 @@
       <c r="O120" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P120" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>120</v>
       </c>
@@ -8503,8 +8876,11 @@
       <c r="O121" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P121" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>121</v>
       </c>
@@ -8532,8 +8908,11 @@
       <c r="O122" s="26" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P122" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>122</v>
       </c>
@@ -8558,8 +8937,11 @@
       <c r="O123" s="26" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P123" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>123</v>
       </c>
@@ -8605,8 +8987,11 @@
       <c r="O124" s="25" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P124" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>124</v>
       </c>
@@ -8649,8 +9034,11 @@
       <c r="O125" s="25" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P125" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>125</v>
       </c>
@@ -8693,8 +9081,11 @@
       <c r="O126" s="25" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P126" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>126</v>
       </c>
@@ -8737,8 +9128,11 @@
       <c r="O127" s="25" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P127" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>127</v>
       </c>
@@ -8784,8 +9178,11 @@
       <c r="O128" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P128" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>128</v>
       </c>
@@ -8831,8 +9228,11 @@
       <c r="O129" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P129" s="27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>129</v>
       </c>
@@ -8878,8 +9278,11 @@
       <c r="O130" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P130" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>130</v>
       </c>
@@ -8925,8 +9328,11 @@
       <c r="O131" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P131" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>131</v>
       </c>
@@ -8972,8 +9378,11 @@
       <c r="O132" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P132" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>132</v>
       </c>
@@ -9019,8 +9428,11 @@
       <c r="O133" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P133" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>133</v>
       </c>
@@ -9066,8 +9478,11 @@
       <c r="O134" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P134" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>134</v>
       </c>
@@ -9113,8 +9528,11 @@
       <c r="O135" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P135" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>135</v>
       </c>
@@ -9159,6 +9577,9 @@
       </c>
       <c r="O136" s="25" t="s">
         <v>567</v>
+      </c>
+      <c r="P136" s="27" t="s">
+        <v>697</v>
       </c>
     </row>
   </sheetData>
